--- a/prod/assets/activities_template.xlsx
+++ b/prod/assets/activities_template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>Farmer</t>
   </si>
@@ -46,6 +46,12 @@
     <t>City</t>
   </si>
   <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>Agronomist</t>
+  </si>
+  <si>
     <t>John James</t>
   </si>
   <si>
@@ -62,6 +68,12 @@
   </si>
   <si>
     <t>Eziama</t>
+  </si>
+  <si>
+    <t>Ukpo</t>
+  </si>
+  <si>
+    <t>Paul walker</t>
   </si>
 </sst>
 </file>
@@ -395,7 +407,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -425,7 +436,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -451,7 +461,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -477,7 +486,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -503,7 +511,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -529,7 +536,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -555,7 +561,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -581,7 +586,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -607,7 +611,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -633,7 +636,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -684,7 +686,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -710,7 +711,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -736,7 +736,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -762,7 +761,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -788,7 +786,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -814,7 +811,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -840,7 +836,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -866,7 +861,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -892,7 +886,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -918,7 +911,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -966,7 +958,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -996,7 +987,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1022,7 +1012,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1048,7 +1037,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1074,7 +1062,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1100,7 +1087,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1126,7 +1112,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1152,7 +1137,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1178,7 +1162,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1204,7 +1187,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1230,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1238,8 +1220,8 @@
   <cols>
     <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="11" width="8.85156" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="13" width="8.85156" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1276,10 +1258,16 @@
       <c r="K1" t="s" s="2">
         <v>10</v>
       </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3">
         <v>44929</v>
@@ -1289,21 +1277,27 @@
         <v>150</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="2"/>
       <c r="H2" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
@@ -1318,6 +1312,8 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="5"/>
@@ -1331,6 +1327,8 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="5"/>
@@ -1344,6 +1342,8 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="5"/>
@@ -1357,6 +1357,8 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="5"/>
@@ -1370,6 +1372,8 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="5"/>
@@ -1383,6 +1387,8 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="5"/>
@@ -1396,19 +1402,8 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prod/assets/activities_template.xlsx
+++ b/prod/assets/activities_template.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E778810-B0E0-480C-B7A7-088B701BCD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="activities" sheetId="1" r:id="rId4"/>
+    <sheet name="activities" sheetId="1" r:id="rId1"/>
+    <sheet name="activitytype" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Farmer</t>
   </si>
@@ -74,28 +84,27 @@
   </si>
   <si>
     <t>Paul walker</t>
+  </si>
+  <si>
+    <t>Activity type</t>
+  </si>
+  <si>
+    <t>FarmDemo</t>
+  </si>
+  <si>
+    <t>MegaFarmerTraining</t>
+  </si>
+  <si>
+    <t>RetailersTraining</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -139,29 +148,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,24 +165,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -389,7 +445,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -407,7 +463,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -436,7 +492,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -461,7 +517,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -486,7 +542,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -511,7 +567,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -536,7 +592,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -561,7 +617,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -586,7 +642,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -611,7 +667,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -636,7 +692,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -649,9 +705,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -668,7 +730,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -686,7 +748,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -711,7 +773,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -736,7 +798,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -761,7 +823,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -786,7 +848,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -811,7 +873,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -836,7 +898,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -861,7 +923,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -886,7 +948,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -911,7 +973,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -924,9 +986,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -940,7 +1008,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -958,7 +1026,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -987,7 +1055,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1012,7 +1080,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,7 +1105,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1062,7 +1130,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1087,7 +1155,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1112,7 +1180,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1205,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,7 +1230,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,7 +1255,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1200,73 +1268,82 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="13" width="8.85156" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
+    <col min="3" max="14" width="8.85546875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3">
@@ -1276,31 +1353,31 @@
       <c r="D2" s="4">
         <v>150</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="2"/>
-      <c r="H2" t="s" s="2">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="M2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1315,7 +1392,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
+    <row r="4" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1330,7 +1407,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1345,7 +1422,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1360,7 +1437,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
+    <row r="7" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1375,7 +1452,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1390,7 +1467,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1407,9 +1484,61 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3A49CB73-DA90-4F11-AB6C-CA0AD5576BFF}">
+          <x14:formula1>
+            <xm:f>activitytype!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901A802B-C5C7-4042-831D-B6D4F6208319}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>